--- a/SP_Sklad/Rep/ReturnCustomer.xlsx
+++ b/SP_Sklad/Rep/ReturnCustomer.xlsx
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="range1">Замовлення!#REF!</definedName>
     <definedName name="range2">#REF!</definedName>
-    <definedName name="WayBillItems">Замовлення!$A$9:$J$11</definedName>
+    <definedName name="WayBillItems">Замовлення!$A$9:$J$12</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">ПОВЕРНЕННЯ ВІД КЛІЄНТА № </t>
   </si>
   <si>
-    <t>13</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve">від </t>
@@ -32,7 +32,7 @@
     <t>Клієнт:</t>
   </si>
   <si>
-    <t>ФОП Асеева</t>
+    <t>ФОП Лялецька №1</t>
   </si>
   <si>
     <t>№</t>
@@ -823,7 +823,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6">
-        <v>42560.854987997685</v>
+        <v>42627.706198414351</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -916,11 +916,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="27">
-        <v>10.6</v>
+        <v>18</v>
       </c>
       <c r="J9" s="26">
         <f>H9*I9</f>
-        <v>10.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -940,77 +940,90 @@
         <v>1</v>
       </c>
       <c r="I10" s="27">
-        <v>10.6</v>
+        <v>18</v>
       </c>
       <c r="J10" s="26">
         <f>H10*I10</f>
-        <v>10.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31" t="s">
+      <c r="B11" s="22">
+        <v>3</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>18</v>
+      </c>
+      <c r="J11" s="26">
+        <f>H11*I11</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32">
-        <f>SUM(J9:J10)</f>
-        <v>21.199999999999999</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32">
+        <f>SUM(J9:J11)</f>
+        <v>54</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="35"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="B16" s="36"/>
@@ -1166,7 +1179,7 @@
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -1782,20 +1795,32 @@
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
     </row>
+    <row r="86">
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E14:G14"/>
+  <mergeCells count="13">
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.5902778" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>
